--- a/WindowsFormsApp1/resources/Activity.xlsx
+++ b/WindowsFormsApp1/resources/Activity.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daniel\VS\Test\WindowsFormsApp1\bin\Activity\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486E762-7EE0-4993-B1F4-D90FF07EC1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2295" yWindow="345" windowWidth="21600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024" sheetId="2" r:id="rId1"/>
+    <sheet name="2023" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +25,800 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="259">
+  <si>
+    <t>NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>ShutDown</t>
+  </si>
+  <si>
+    <t>X29 16:39:00</t>
+  </si>
+  <si>
+    <t>StartUp</t>
+  </si>
+  <si>
+    <t>J30 08:39:40</t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t>V01 08:09:34</t>
+  </si>
+  <si>
+    <t>L04 08:18:32</t>
+  </si>
+  <si>
+    <t>L04 14:09:01</t>
+  </si>
+  <si>
+    <t>L04 14:39:39</t>
+  </si>
+  <si>
+    <t>M05 08:16:53</t>
+  </si>
+  <si>
+    <t>M05 08:31:31</t>
+  </si>
+  <si>
+    <t>M05 08:37:43</t>
+  </si>
+  <si>
+    <t>M05 08:43:37</t>
+  </si>
+  <si>
+    <t>M05 08:46:08</t>
+  </si>
+  <si>
+    <t>M14 09:35:10</t>
+  </si>
+  <si>
+    <t>M14 09:37:46</t>
+  </si>
+  <si>
+    <t>M14 09:45:52</t>
+  </si>
+  <si>
+    <t>M14 09:48:20</t>
+  </si>
+  <si>
+    <t>M14 14:08:59</t>
+  </si>
+  <si>
+    <t>M14 14:37:07</t>
+  </si>
+  <si>
+    <t>M14 16:56:14</t>
+  </si>
+  <si>
+    <t>J16 08:22:32</t>
+  </si>
+  <si>
+    <t>J07 13:37:07</t>
+  </si>
+  <si>
+    <t>J07 13:40:08</t>
+  </si>
+  <si>
+    <t>J07 13:41:21</t>
+  </si>
+  <si>
+    <t>J07 13:44:03</t>
+  </si>
+  <si>
+    <t>J07 14:03:01</t>
+  </si>
+  <si>
+    <t>J07 14:38:30</t>
+  </si>
+  <si>
+    <t>J07 16:54:55</t>
+  </si>
+  <si>
+    <t>L11 08:06:25</t>
+  </si>
+  <si>
+    <t>L11 14:04:34</t>
+  </si>
+  <si>
+    <t>L11 14:34:57</t>
+  </si>
+  <si>
+    <t>L11 16:37:38</t>
+  </si>
+  <si>
+    <t>M12 08:11:49</t>
+  </si>
+  <si>
+    <t>M12 14:05:04</t>
+  </si>
+  <si>
+    <t>M12 14:36:55</t>
+  </si>
+  <si>
+    <t>M12 16:44:25</t>
+  </si>
+  <si>
+    <t>X13 08:13:30</t>
+  </si>
+  <si>
+    <t>X13 11:48:39</t>
+  </si>
+  <si>
+    <t>X13 11:49:01</t>
+  </si>
+  <si>
+    <t>X13 11:51:28</t>
+  </si>
+  <si>
+    <t>X13 11:58:19</t>
+  </si>
+  <si>
+    <t>X13 12:23:20</t>
+  </si>
+  <si>
+    <t>X13 12:26:05</t>
+  </si>
+  <si>
+    <t>X13 12:26:42</t>
+  </si>
+  <si>
+    <t>X13 12:27:08</t>
+  </si>
+  <si>
+    <t>X13 13:39:13</t>
+  </si>
+  <si>
+    <t>X13 13:41:58</t>
+  </si>
+  <si>
+    <t>X13 14:07:21</t>
+  </si>
+  <si>
+    <t>X13 14:37:29</t>
+  </si>
+  <si>
+    <t>X13 15:45:24</t>
+  </si>
+  <si>
+    <t>X13 15:48:20</t>
+  </si>
+  <si>
+    <t>X13 16:38:50</t>
+  </si>
+  <si>
+    <t>J14 08:18:35</t>
+  </si>
+  <si>
+    <t>J14 10:01:14</t>
+  </si>
+  <si>
+    <t>J14 10:03:56</t>
+  </si>
+  <si>
+    <t>J14 10:07:04</t>
+  </si>
+  <si>
+    <t>J14 10:12:35</t>
+  </si>
+  <si>
+    <t>J14 14:05:43</t>
+  </si>
+  <si>
+    <t>J14 14:36:43</t>
+  </si>
+  <si>
+    <t>J14 16:51:35</t>
+  </si>
+  <si>
+    <t>M19 08:03:54</t>
+  </si>
+  <si>
+    <t>M19 08:54:24</t>
+  </si>
+  <si>
+    <t>M19 08:57:12</t>
+  </si>
+  <si>
+    <t>M19 09:02:06</t>
+  </si>
+  <si>
+    <t>M19 09:03:08</t>
+  </si>
+  <si>
+    <t>M19 09:16:24</t>
+  </si>
+  <si>
+    <t>M19 09:17:22</t>
+  </si>
+  <si>
+    <t>M19 09:17:29</t>
+  </si>
+  <si>
+    <t>M19 09:23:24</t>
+  </si>
+  <si>
+    <t>M19 09:48:12</t>
+  </si>
+  <si>
+    <t>M19 09:50:48</t>
+  </si>
+  <si>
+    <t>M19 10:20:00</t>
+  </si>
+  <si>
+    <t>M19 10:29:53</t>
+  </si>
+  <si>
+    <t>M19 10:33:47</t>
+  </si>
+  <si>
+    <t>M19 10:36:37</t>
+  </si>
+  <si>
+    <t>M19 10:36:50</t>
+  </si>
+  <si>
+    <t>M19 10:41:06</t>
+  </si>
+  <si>
+    <t>M19 10:42:11</t>
+  </si>
+  <si>
+    <t>M19 10:45:15</t>
+  </si>
+  <si>
+    <t>M19 10:57:06</t>
+  </si>
+  <si>
+    <t>M19 11:00:18</t>
+  </si>
+  <si>
+    <t>M19 11:33:54</t>
+  </si>
+  <si>
+    <t>M19 11:36:41</t>
+  </si>
+  <si>
+    <t>M19 12:16:04</t>
+  </si>
+  <si>
+    <t>M19 12:19:30</t>
+  </si>
+  <si>
+    <t>M19 12:43:22</t>
+  </si>
+  <si>
+    <t>M19 12:45:58</t>
+  </si>
+  <si>
+    <t>M19 12:49:29</t>
+  </si>
+  <si>
+    <t>M19 12:52:04</t>
+  </si>
+  <si>
+    <t>M19 13:00:09</t>
+  </si>
+  <si>
+    <t>M19 13:21:58</t>
+  </si>
+  <si>
+    <t>M19 13:26:09</t>
+  </si>
+  <si>
+    <t>M19 13:29:45</t>
+  </si>
+  <si>
+    <t>M19 13:54:21</t>
+  </si>
+  <si>
+    <t>M19 13:59:30</t>
+  </si>
+  <si>
+    <t>M19 14:48:46</t>
+  </si>
+  <si>
+    <t>M19 14:51:53</t>
+  </si>
+  <si>
+    <t>M19 16:04:26</t>
+  </si>
+  <si>
+    <t>M19 16:07:04</t>
+  </si>
+  <si>
+    <t>M19 16:38:30</t>
+  </si>
+  <si>
+    <t>X20 08:07:27</t>
+  </si>
+  <si>
+    <t>X20 08:36:35</t>
+  </si>
+  <si>
+    <t>X20 08:37:44</t>
+  </si>
+  <si>
+    <t>X20 08:51:01</t>
+  </si>
+  <si>
+    <t>X20 08:52:01</t>
+  </si>
+  <si>
+    <t>X20 09:15:13</t>
+  </si>
+  <si>
+    <t>X20 09:17:09</t>
+  </si>
+  <si>
+    <t>X20 09:19:22</t>
+  </si>
+  <si>
+    <t>X20 09:20:30</t>
+  </si>
+  <si>
+    <t>X20 10:20:36</t>
+  </si>
+  <si>
+    <t>X20 10:21:44</t>
+  </si>
+  <si>
+    <t>X20 11:49:13</t>
+  </si>
+  <si>
+    <t>X20 11:50:43</t>
+  </si>
+  <si>
+    <t>X20 12:01:35</t>
+  </si>
+  <si>
+    <t>X20 12:04:19</t>
+  </si>
+  <si>
+    <t>X20 14:08:12</t>
+  </si>
+  <si>
+    <t>X20 14:36:22</t>
+  </si>
+  <si>
+    <t>X20 16:54:47</t>
+  </si>
+  <si>
+    <t>J21 08:11:31</t>
+  </si>
+  <si>
+    <t>J21 14:06:24</t>
+  </si>
+  <si>
+    <t>J21 14:36:31</t>
+  </si>
+  <si>
+    <t>J21 16:41:39</t>
+  </si>
+  <si>
+    <t>V22 08:10:27</t>
+  </si>
+  <si>
+    <t>V22 10:17:55</t>
+  </si>
+  <si>
+    <t>V22 10:19:25</t>
+  </si>
+  <si>
+    <t>V22 11:13:26</t>
+  </si>
+  <si>
+    <t>V22 11:14:33</t>
+  </si>
+  <si>
+    <t>V22 14:04:16</t>
+  </si>
+  <si>
+    <t>M26 08:33:38</t>
+  </si>
+  <si>
+    <t>M26 14:05:48</t>
+  </si>
+  <si>
+    <t>M26 14:37:59</t>
+  </si>
+  <si>
+    <t>M26 17:09:14</t>
+  </si>
+  <si>
+    <t>X27 08:11:47</t>
+  </si>
+  <si>
+    <t>X27 14:06:52</t>
+  </si>
+  <si>
+    <t>X27 14:36:40</t>
+  </si>
+  <si>
+    <t>X27 16:57:31</t>
+  </si>
+  <si>
+    <t>J28 08:11:52</t>
+  </si>
+  <si>
+    <t>J28 14:10:06</t>
+  </si>
+  <si>
+    <t>J28 14:41:36</t>
+  </si>
+  <si>
+    <t>V29 13:56:27</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>M02 07:45:09</t>
+  </si>
+  <si>
+    <t>M02 14:07:04</t>
+  </si>
+  <si>
+    <t>M02 14:34:35</t>
+  </si>
+  <si>
+    <t>M02 16:16:07</t>
+  </si>
+  <si>
+    <t>X03 07:34:21</t>
+  </si>
+  <si>
+    <t>X03 08:18:28</t>
+  </si>
+  <si>
+    <t>X03 08:18:34</t>
+  </si>
+  <si>
+    <t>X03 14:05:09</t>
+  </si>
+  <si>
+    <t>X03 14:36:02</t>
+  </si>
+  <si>
+    <t>X03 16:12:25</t>
+  </si>
+  <si>
+    <t>J04 07:32:09</t>
+  </si>
+  <si>
+    <t>J04 14:03:54</t>
+  </si>
+  <si>
+    <t>J04 14:25:46</t>
+  </si>
+  <si>
+    <t>J04 16:59:51</t>
+  </si>
+  <si>
+    <t>V05 07:33:22</t>
+  </si>
+  <si>
+    <t>V05 13:35:39</t>
+  </si>
+  <si>
+    <t>L15 07:38:08</t>
+  </si>
+  <si>
+    <t>L15 09:28:55</t>
+  </si>
+  <si>
+    <t>L15 10:03:07</t>
+  </si>
+  <si>
+    <t>L15 11:34:46</t>
+  </si>
+  <si>
+    <t>L15 11:35:39</t>
+  </si>
+  <si>
+    <t>L15 14:05:58</t>
+  </si>
+  <si>
+    <t>L15 14:38:44</t>
+  </si>
+  <si>
+    <t>L15 16:17:13</t>
+  </si>
+  <si>
+    <t>M16 07:43:11</t>
+  </si>
+  <si>
+    <t>M16 14:10:04</t>
+  </si>
+  <si>
+    <t>M16 14:34:42</t>
+  </si>
+  <si>
+    <t>M16 16:12:34</t>
+  </si>
+  <si>
+    <t>X17 07:35:16</t>
+  </si>
+  <si>
+    <t>X17 10:41:15</t>
+  </si>
+  <si>
+    <t>X17 10:42:00</t>
+  </si>
+  <si>
+    <t>X17 14:04:49</t>
+  </si>
+  <si>
+    <t>X17 14:41:38</t>
+  </si>
+  <si>
+    <t>X17 16:10:34</t>
+  </si>
+  <si>
+    <t>J18 07:54:40</t>
+  </si>
+  <si>
+    <t>J18 09:55:37</t>
+  </si>
+  <si>
+    <t>J18 11:06:09</t>
+  </si>
+  <si>
+    <t>J18 14:05:13</t>
+  </si>
+  <si>
+    <t>J18 14:37:23</t>
+  </si>
+  <si>
+    <t>J18 16:24:19</t>
+  </si>
+  <si>
+    <t>V19 07:44:29</t>
+  </si>
+  <si>
+    <t>V19 13:37:13</t>
+  </si>
+  <si>
+    <t>L22 07:50:57</t>
+  </si>
+  <si>
+    <t>L22 14:07:34</t>
+  </si>
+  <si>
+    <t>L22 14:38:53</t>
+  </si>
+  <si>
+    <t>L22 16:55:23</t>
+  </si>
+  <si>
+    <t>M23 07:41:00</t>
+  </si>
+  <si>
+    <t>M23 14:07:46</t>
+  </si>
+  <si>
+    <t>M23 14:38:37</t>
+  </si>
+  <si>
+    <t>M23 16:54:34</t>
+  </si>
+  <si>
+    <t>X24 08:32:13</t>
+  </si>
+  <si>
+    <t>X24 14:05:10</t>
+  </si>
+  <si>
+    <t>X24 14:38:30</t>
+  </si>
+  <si>
+    <t>X24 18:03:25</t>
+  </si>
+  <si>
+    <t>J25 07:49:35</t>
+  </si>
+  <si>
+    <t>J25 14:44:57</t>
+  </si>
+  <si>
+    <t>J25 17:39:02</t>
+  </si>
+  <si>
+    <t>V26 07:43:28</t>
+  </si>
+  <si>
+    <t>V26 13:47:03</t>
+  </si>
+  <si>
+    <t>L29 07:40:15</t>
+  </si>
+  <si>
+    <t>L29 08:28:02</t>
+  </si>
+  <si>
+    <t>L29 08:34:52</t>
+  </si>
+  <si>
+    <t>L29 08:36:48</t>
+  </si>
+  <si>
+    <t>L29 14:05:20</t>
+  </si>
+  <si>
+    <t>L29 14:59:31</t>
+  </si>
+  <si>
+    <t>L29 16:24:58</t>
+  </si>
+  <si>
+    <t>M30 07:41:14</t>
+  </si>
+  <si>
+    <t>M30 14:05:41</t>
+  </si>
+  <si>
+    <t>M30 14:38:20</t>
+  </si>
+  <si>
+    <t>M30 16:09:00</t>
+  </si>
+  <si>
+    <t>X31 07:47:41</t>
+  </si>
+  <si>
+    <t>X31 14:05:34</t>
+  </si>
+  <si>
+    <t>X31 14:36:33</t>
+  </si>
+  <si>
+    <t>X31 16:11:55</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
+  </si>
+  <si>
+    <t>J01 07:39:02</t>
+  </si>
+  <si>
+    <t>J01 14:04:38</t>
+  </si>
+  <si>
+    <t>J01 14:36:31</t>
+  </si>
+  <si>
+    <t>J01 16:18:32</t>
+  </si>
+  <si>
+    <t>V02 07:52:47</t>
+  </si>
+  <si>
+    <t>V02 20:23:03</t>
+  </si>
+  <si>
+    <t>L05 07:39:54</t>
+  </si>
+  <si>
+    <t>L05 08:29:16</t>
+  </si>
+  <si>
+    <t>L05 10:23:44</t>
+  </si>
+  <si>
+    <t>L05 14:05:56</t>
+  </si>
+  <si>
+    <t>L05 14:36:00</t>
+  </si>
+  <si>
+    <t>L05 16:10:16</t>
+  </si>
+  <si>
+    <t>M06 07:38:53</t>
+  </si>
+  <si>
+    <t>M06 14:05:36</t>
+  </si>
+  <si>
+    <t>M06 14:37:29</t>
+  </si>
+  <si>
+    <t>M06 16:26:19</t>
+  </si>
+  <si>
+    <t>X07 07:41:26</t>
+  </si>
+  <si>
+    <t>X07 14:05:05</t>
+  </si>
+  <si>
+    <t>X07 14:36:58</t>
+  </si>
+  <si>
+    <t>X07 16:56:58</t>
+  </si>
+  <si>
+    <t>J08 07:44:21</t>
+  </si>
+  <si>
+    <t>J08 14:05:36</t>
+  </si>
+  <si>
+    <t>J08 14:36:42</t>
+  </si>
+  <si>
+    <t>J08 16:11:33</t>
+  </si>
+  <si>
+    <t>V09 07:33:35</t>
+  </si>
+  <si>
+    <t>V09 13:22:13</t>
+  </si>
+  <si>
+    <t>L12 07:41:31</t>
+  </si>
+  <si>
+    <t>L12 14:05:40</t>
+  </si>
+  <si>
+    <t>L12 14:45:17</t>
+  </si>
+  <si>
+    <t>L12 16:19:46</t>
+  </si>
+  <si>
+    <t>M13 07:34:12</t>
+  </si>
+  <si>
+    <t>M13 14:05:31</t>
+  </si>
+  <si>
+    <t>M13 14:38:35</t>
+  </si>
+  <si>
+    <t>M13 16:15:23</t>
+  </si>
+  <si>
+    <t>X14 07:34:30</t>
+  </si>
+  <si>
+    <t>X14 14:09:52</t>
+  </si>
+  <si>
+    <t>X14 14:46:08</t>
+  </si>
+  <si>
+    <t>X14 17:02:01</t>
+  </si>
+  <si>
+    <t>J15 07:54:04</t>
+  </si>
+  <si>
+    <t>J15 14:05:05</t>
+  </si>
+  <si>
+    <t>J15 14:37:32</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +834,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +842,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1162,2020 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853246E6-98B3-43CD-A0CA-1D1BF181CA10}">
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>